--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34CFAD-B46D-4C3D-BF9A-7B35AA3FA57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="班機表欄位" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>快遞專區倉單</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -178,22 +179,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>收件者統編</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件電話</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_EXTEL}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_EXNO}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>原數量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -206,24 +191,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新收件地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_GETNAME_NEW}</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_GETADDRESS_NEW}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_TAX2}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>稅則</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${table:data.IL_TAX}</t>
@@ -233,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -266,13 +235,11 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -385,10 +352,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="3232" xfId="1"/>
+    <cellStyle name="3232" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -406,6 +387,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -413,120 +436,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -549,8 +466,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB3B3"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -581,7 +499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 20"/>
+        <xdr:cNvPr id="2" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -886,36 +810,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="10.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="51.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.25" style="3" customWidth="1"/>
-    <col min="17" max="18" width="58.25" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="3"/>
+    <col min="15" max="16" width="20.21875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="58.21875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.5">
+    <row r="1" spans="1:17" ht="19.8">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -934,10 +855,8 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:21" ht="19.5">
+    <row r="2" spans="1:17" ht="19.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -958,7 +877,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:21" ht="19.5">
+    <row r="3" spans="1:17" ht="19.8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -975,7 +894,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" ht="33">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="32.4">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -986,22 +905,22 @@
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>16</v>
@@ -1022,25 +941,13 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" customHeight="1">
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -1051,22 +958,22 @@
         <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>27</v>
@@ -1087,22 +994,10 @@
         <v>31</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1113,47 +1008,63 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
-      <formula>AND(COUNTIF($C$5:$C$62731,D4)+COUNTIF($C$1:$C$4,D4)&gt;1,NOT(ISBLANK(D4)))</formula>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>AND(COUNTIF($C$5:$C$62731,H4)+COUNTIF($C$1:$C$4,H4)&gt;1,NOT(ISBLANK(H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F4000">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>VALUE($F5)&gt;70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="19" priority="2">
+  <conditionalFormatting sqref="J5:XFD5 A8:XFD8000 A6:C7 F6:XFD7">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  <conditionalFormatting sqref="D4:D5 H1:H3 H6:H1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:I5 A6:XFD8000 K5:XFD5">
-    <cfRule type="expression" dxfId="16" priority="14">
+  <conditionalFormatting sqref="A5:C5 F5:I5">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C8000">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$C5="移倉"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$C5="X3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C5="G1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>LENB($C5)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E5">
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>$B5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>$B5="普特貨"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E5">
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>$B6="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>$B6="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34CFAD-B46D-4C3D-BF9A-7B35AA3FA57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B9BF1-B140-4478-8D21-654DFD0092C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_BAGNO}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_SMALLNO}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -196,6 +192,10 @@
   </si>
   <si>
     <t>${table:data.IL_TAX}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_BAGNOEX_NOREPEAT}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -896,13 +896,13 @@
     </row>
     <row r="4" spans="1:17" s="7" customFormat="1" ht="32.4">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -914,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -941,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>10</v>
@@ -949,52 +949,52 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="P5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>9</v>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B9BF1-B140-4478-8D21-654DFD0092C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB2C7F-FDB7-4B9D-B5EB-B6BF1FCFA393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>快遞專區倉單</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -197,6 +197,14 @@
   <si>
     <t>${table:data.IL_BAGNOEX_NOREPEAT}</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>派送公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_TRCOM}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,13 +494,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -811,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -828,15 +836,16 @@
     <col min="8" max="8" width="13.88671875" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.21875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="58.21875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="11" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.21875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="58.21875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.8">
+    <row r="1" spans="1:18" ht="19.8">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -852,11 +861,12 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
-      <c r="N1" s="5"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="19.8">
+    <row r="2" spans="1:18" ht="19.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -875,9 +885,10 @@
       <c r="H2" s="12"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="10"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="19.8">
+    <row r="3" spans="1:18" ht="19.8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -894,7 +905,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="32.4">
+    <row r="4" spans="1:18" s="7" customFormat="1" ht="32.4">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -926,28 +937,31 @@
         <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
@@ -979,30 +993,33 @@
         <v>26</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:G2"/>
